--- a/학습자료/단답형/국어.xlsx
+++ b/학습자료/단답형/국어.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMSUNG\PycharmProjects\study_new\학습자료\단답형\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test\Documents\GitHub\Private-Quizlet\학습자료\단답형\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7D8D34-9AB2-4C9D-89AB-C8835D63CCEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
   <si>
     <t>질문</t>
   </si>
@@ -157,13 +158,41 @@
   </si>
   <si>
     <t>말씀</t>
+  </si>
+  <si>
+    <t>축소 | 평칭 -&gt; 비칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겨례</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확대 | 종족 -&gt; 민족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축소 | 형체 -&gt; 안면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 | 시간 -&gt; 식사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,26 +201,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -221,11 +265,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -527,16 +572,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="16384" width="8.6640625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,359 +598,392 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>-7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>-6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>-7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>-6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>-9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>-9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>-9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>-7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>-10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
+      <c r="C26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D26"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <autoFilter ref="A1:D26" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
